--- a/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_16.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_16.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N506"/>
+  <dimension ref="A1:N507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3163268566131592</v>
+        <v>0.0008337497711181641</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01976704597473145</v>
+        <v>0.0009548664093017578</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004859209060668945</v>
+        <v>0.04053092002868652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 1), (1, 0), (1, 2), (2, 1), (0, 0), (0, 2), (0, 3), (3, 0), (3, 1), (2, 0), (3, 2), (2, 2), (1, 3), (3, 3), (2, 3)]</t>
+          <t>[[0, 1], [1, 1], [1, 0], [1, 2], [2, 1], [0, 0], [0, 2], [0, 3], [3, 0], [3, 1], [2, 0], [3, 2], [2, 2], [1, 3], [3, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 0), (2, 2), (0, 1), (1, 3), (0, 3), (0, 2), (1, 2), (1, 1), (2, 1), (2, 0), (3, 0), (3, 2), (2, 3), (3, 3), (0, 0)]</t>
+          <t>[[3, 1], [1, 0], [2, 2], [0, 1], [1, 3], [0, 3], [0, 2], [1, 2], [1, 1], [2, 1], [2, 0], [3, 0], [3, 2], [2, 3], [3, 3], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[(1, 3), (2, 3), (2, 2), (2, 1), (3, 0), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (1, 2), (3, 3), (0, 3)]</t>
+          <t>[[1, 3], [2, 3], [2, 2], [2, 1], [3, 0], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [1, 2], [3, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[(1, 3), (0, 3), (2, 3), (1, 2), (3, 3), (2, 1), (3, 0), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (2, 2)]</t>
+          <t>[[1, 3], [0, 3], [2, 3], [1, 2], [3, 3], [2, 1], [3, 0], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 2), (1, 3), (0, 3), (1, 2), (2, 3), (3, 3), (2, 1), (3, 0), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1)]</t>
+          <t>[[3, 2], [2, 2], [1, 3], [0, 3], [1, 2], [2, 3], [3, 3], [2, 1], [3, 0], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (3, 2), (3, 3), (1, 2), (0, 3), (1, 3), (2, 3), (2, 2), (3, 1), (3, 0), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0)]</t>
+          <t>[[2, 0], [2, 1], [3, 2], [3, 3], [1, 2], [0, 3], [1, 3], [2, 3], [2, 2], [3, 1], [3, 0], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>[(1, 3), (1, 2), (3, 3), (2, 1), (3, 0), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (2, 2), (2, 3), (0, 3)]</t>
+          <t>[[1, 3], [1, 2], [3, 3], [2, 1], [3, 0], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [2, 2], [2, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[(1, 3), (0, 3), (2, 3), (1, 2), (3, 3), (2, 1), (3, 0), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (2, 2)]</t>
+          <t>[[1, 3], [0, 3], [2, 3], [1, 2], [3, 3], [2, 1], [3, 0], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 2), (1, 3), (0, 3), (1, 2), (2, 3), (3, 3), (2, 1), (3, 0), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1)]</t>
+          <t>[[3, 2], [2, 2], [1, 3], [0, 3], [1, 2], [2, 3], [3, 3], [2, 1], [3, 0], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (3, 2), (3, 3), (1, 2), (0, 3), (1, 3), (2, 3), (2, 2), (3, 1), (3, 0), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0)]</t>
+          <t>[[2, 0], [2, 1], [3, 2], [3, 3], [1, 2], [0, 3], [1, 3], [2, 3], [2, 2], [3, 1], [3, 0], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>[(1, 3), (1, 2), (3, 3), (2, 1), (3, 0), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (2, 2), (2, 3), (0, 3)]</t>
+          <t>[[1, 3], [1, 2], [3, 3], [2, 1], [3, 0], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [2, 2], [2, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>[(0, 3), (3, 0), (3, 1), (3, 2), (1, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (3, 3)]</t>
+          <t>[[0, 3], [3, 0], [3, 1], [3, 2], [1, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>[(0, 3), (3, 1), (3, 2), (2, 3), (1, 3), (3, 3), (2, 2), (3, 0), (2, 0), (1, 2), (0, 1), (0, 0), (0, 2), (1, 1), (1, 0), (2, 1)]</t>
+          <t>[[0, 3], [3, 1], [3, 2], [2, 3], [1, 3], [3, 3], [2, 2], [3, 0], [2, 0], [1, 2], [0, 1], [0, 0], [0, 2], [1, 1], [1, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>[(1, 2), (3, 1), (3, 2), (2, 3), (1, 3), (3, 3), (2, 2), (3, 0), (2, 0), (1, 0), (2, 1), (0, 3), (0, 0), (1, 1), (0, 1), (0, 2)]</t>
+          <t>[[1, 2], [3, 1], [3, 2], [2, 3], [1, 3], [3, 3], [2, 2], [3, 0], [2, 0], [1, 0], [2, 1], [0, 3], [0, 0], [1, 1], [0, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -4302,110 +4302,120 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>118</v>
+        <v>0.9927717856778244</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>360</v>
+        <v>118</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>14</v>
+        <v>360</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0.3745553493499756</v>
+        <v>14</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.1341729164123535</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B506" t="inlineStr">
+      <c r="B507" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C506" t="inlineStr">
+      <c r="C507" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D506" t="inlineStr">
+      <c r="D507" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E506" t="inlineStr">
+      <c r="E507" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F506" t="inlineStr">
+      <c r="F507" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G506" t="inlineStr">
+      <c r="G507" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
+      <c r="H507" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I506" t="inlineStr">
+      <c r="I507" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J506" t="inlineStr">
+      <c r="J507" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K506" t="inlineStr">
+      <c r="K507" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L506" t="inlineStr">
+      <c r="L507" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M506" t="inlineStr">
+      <c r="M507" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N506" t="inlineStr">
+      <c r="N507" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
